--- a/va_facility_data_2025-02-20/Riverton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Riverton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Riverton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Riverton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4eabb26bcaf9480084471cc1e81e6f77"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0a82c541ca654c92a79b032a6a722bc8"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1b63c17aef1a4ae2876507313f8dba62"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3a8065ccd5ee4ec5a104a91f4b024fe4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R837d8b8dbb034091b7669ccff66cae92"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R86959d6ed8a5433a8d1bd5e230ddd9aa"/>
   </x:sheets>
 </x:workbook>
 </file>
